--- a/AWS CSA SAA-CO2 - master/02 AWS Networking and Elastic Compute Cloud/01 VPC/Scuba Syndrome Subnets.xlsx
+++ b/AWS CSA SAA-CO2 - master/02 AWS Networking and Elastic Compute Cloud/01 VPC/Scuba Syndrome Subnets.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julieelkins/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julieelkins/Desktop/AWS CSA SAA-CO2 - master/02 AWS Networking and Elastic Compute Cloud/01 VPC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03288A20-B753-564B-B6BF-FBEDCC3F3870}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50BEA019-5442-E440-984D-B072B4B13770}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2740" yWindow="4000" windowWidth="28040" windowHeight="17440" xr2:uid="{0E103A98-1D8E-BF4B-8E36-F231F3FE7EA8}"/>
+    <workbookView xWindow="-29920" yWindow="4120" windowWidth="28040" windowHeight="17440" xr2:uid="{0E103A98-1D8E-BF4B-8E36-F231F3FE7EA8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ScubaSyndrome" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -194,14 +194,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -520,7 +520,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -529,158 +529,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>0</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>1</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>2</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>3</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>4</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>5</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>6</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>7</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>8</v>
       </c>
       <c r="E11" s="1"/>
